--- a/fhir/conceptmap-ucum-to-printsymbol.xlsx
+++ b/fhir/conceptmap-ucum-to-printsymbol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>per minute</t>
+  </si>
+  <si>
+    <t>/d</t>
+  </si>
+  <si>
+    <t>per day</t>
+  </si>
+  <si>
+    <t>/wk</t>
+  </si>
+  <si>
+    <t>per week</t>
   </si>
   <si>
     <t>http://ehealth.sundhed.dk/cs/ehealth-unit-code</t>
@@ -475,7 +487,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -717,6 +729,40 @@
       </c>
       <c r="E14" t="s" s="2">
         <v>57</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +797,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>21</v>
@@ -768,36 +814,36 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/conceptmap-ucum-to-printsymbol.xlsx
+++ b/fhir/conceptmap-ucum-to-printsymbol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -55,7 +55,7 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>true</t>
+    <t>false</t>
   </si>
   <si>
     <t>Date</t>
@@ -149,6 +149,24 @@
   </si>
   <si>
     <t>meter</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>centimeter</t>
+  </si>
+  <si>
+    <t>cm2</t>
+  </si>
+  <si>
+    <t>square centimeter</t>
+  </si>
+  <si>
+    <t>cm3</t>
+  </si>
+  <si>
+    <t>cubic centimeter</t>
   </si>
   <si>
     <t>L</t>
@@ -490,7 +508,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -766,6 +784,57 @@
       </c>
       <c r="E16" t="s" s="2">
         <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +869,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>32</v>
@@ -817,36 +886,36 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/conceptmap-ucum-to-printsymbol.xlsx
+++ b/fhir/conceptmap-ucum-to-printsymbol.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-ucum-to-printsymbol.xlsx
+++ b/fhir/conceptmap-ucum-to-printsymbol.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-ucum-to-printsymbol.xlsx
+++ b/fhir/conceptmap-ucum-to-printsymbol.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-ucum-to-printsymbol.xlsx
+++ b/fhir/conceptmap-ucum-to-printsymbol.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-ucum-to-printsymbol.xlsx
+++ b/fhir/conceptmap-ucum-to-printsymbol.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-ucum-to-printsymbol.xlsx
+++ b/fhir/conceptmap-ucum-to-printsymbol.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-ucum-to-printsymbol.xlsx
+++ b/fhir/conceptmap-ucum-to-printsymbol.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/conceptmap-ucum-to-printsymbol.xlsx
+++ b/fhir/conceptmap-ucum-to-printsymbol.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
